--- a/biology/Botanique/Crocus/Crocus.xlsx
+++ b/biology/Botanique/Crocus/Crocus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocus est un genre botanique de la famille des Iridaceae, qui comprend 90 espèces, dont un tiers fleurit en automne. Les espèces sont en majorité originaires des montagnes de la région méditerranéenne ; la plus grande concentration se trouvant dans les Balkans et en Asie mineure. Font exception Crocus vernus (L.) Hill, qui remonte jusqu'en Europe centrale (Alpes et Carpates) et quelques espèces, notamment Crocus alatavicus Semenova &amp; Reg. et Crocus korolkowii Regel ex Maw, originaires des montagnes d'Asie centrale.
 Des taxons semblables, mais n'appartenant pas à la même famille, sont parfois appelés à tort crocus ; c'est le cas du Crocus d'automne (Sternbergia lutea).
@@ -512,25 +524,27 @@
           <t>Les espèces botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La classification proposée en 1982 par Brian Mathew n’est certes pas idéale, mais a l’avantage d’être basée sur des caractéristiques faciles à reconnaître, surtout la présence ou l’absence de prophylle (spathe basale) et l’aspect du style et de la tunique des cormes. Les 7 espèces découvertes dans l’intervalle ont été ultérieurement intégrées dans cette classification[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La classification proposée en 1982 par Brian Mathew n’est certes pas idéale, mais a l’avantage d’être basée sur des caractéristiques faciles à reconnaître, surtout la présence ou l’absence de prophylle (spathe basale) et l’aspect du style et de la tunique des cormes. Les 7 espèces découvertes dans l’intervalle ont été ultérieurement intégrées dans cette classification.  
 Des analyses moléculaires réalisées récemment à l’université de Copenhague suggèrent en effet que cette classification devrait être revue.
 L’examen des données de l’ADN suggère qu’il n’y a pas de raison d’isoler Crocus banaticus dans le sous-genre Crociris, même si cette espèce est unique morphologiquement parlant. Comme elle possède un prophylle à la base du tube floral elle devrait dès lors être placée dans la section Crocus, bien que sa relation exacte au reste du sous-genre Crocus reste à préciser.Une autre espèce anomale, Crocus baytopiorum, devrait être dorénavant placée dans une série propre, à savoir la série Baytopi. La position de Crocus malyi reste par ailleurs à préciser. Crocus gargaricus subsp. herbertii a été entre-temps élevé au rang d’espèce, en tant que Crocus herbertii B. Mathew.Peut-être moins surprenant, le crocus automnal Crocus longiflorus, l’espèce type de la série Longiflori (considérée longtemps par Mathew comme « un assemblage disparate »), semble devoir être rattaché à la série Verni.L'étude suggère en outre que les séries Reticulati, Biflori et Speciosi devraient être regroupées. Crocus adanensis et Crocus caspius devraient en outre quitter la série Biflori. Crocus adanensis rejoindrait ainsi Crocus paschei dans la série Flavi, et Crocus caspius serait rattaché à la série Orientales.
-L’étude montre par ailleurs que malgré les inconsistances notées entre la classification de Mathew et l’hypothèse actuelle, l’assignation des espèces à des sections et des séries reste supportée. La reclassification future concernera vraisemblablement tous les niveaux infra-génériques (sous-genres, sections et séries). Des études supplémentaires sont toutefois à effectuer avant de prendre une décision ferme concernant un système de classification hiérarchisé[2].
+L’étude montre par ailleurs que malgré les inconsistances notées entre la classification de Mathew et l’hypothèse actuelle, l’assignation des espèces à des sections et des séries reste supportée. La reclassification future concernera vraisemblablement tous les niveaux infra-génériques (sous-genres, sections et séries). Des études supplémentaires sont toutefois à effectuer avant de prendre une décision ferme concernant un système de classification hiérarchisé.
 Ci-après la classification proposée en 1982 par Brian Mathew, adaptée en fonction de résultats de cette étude.
 Section Crocus : Présence d’un prophylle basal
 Série Verni : corme à tuniques à fibres réticulées, floraison printanière, fleurs généralement indistinctement striées, bractées absentes
 Crocus etruscus Parl.
-Crocus ilvensis Peruzzi &amp; Carta[3]
+Crocus ilvensis Peruzzi &amp; Carta
 Crocus kosaninii Pulevic
-Crocus longiflorus Raf. (auparavant dans la Série Longiflori)[2]
+Crocus longiflorus Raf. (auparavant dans la Série Longiflori)
 Crocus tommasinianus Herb.
 Crocus vernus (L.) Hill
 Crocus vernus subsp. vernus
 Crocus vernus subsp. albiflorus (Kit. ex Schult.) Asch. &amp; Graebn.
-Série Baytopi (nouvelle Série) : corme à fibres fortement réticulées, feuilles nombreuses, étroitement linéaires, floraison printanière, bractées absentes, anthères à déhiscence extorse[2]
-Crocus baytopiorum Mathew (auparavant dans la Série Verni)[2]
+Série Baytopi (nouvelle Série) : corme à fibres fortement réticulées, feuilles nombreuses, étroitement linéaires, floraison printanière, bractées absentes, anthères à déhiscence extorse
+Crocus baytopiorum Mathew (auparavant dans la Série Verni)
 Série Scardici : floraison printanière, feuilles à ligne médiane pâle ou absente
 Crocus pelistericus Pulevic
 Crocus scardicus Kos.
@@ -583,7 +597,7 @@
 Crocus pallasii subsp. turcicus B. Mathew
 Crocus sativus L., le safran, un taxon triploïde stérile, vraisemblablement dérivé de Crocus cartwrightianus
 Crocus thomasii Ten.
-Position à définir [2]
+Position à définir 
 Crocus malyi Vis. (auparavant dans la Série Versicolores)
 Crocus banaticus Heuff. (auparavant dans le Sous-genre Crociris)
 Section Nudiscapus : Absence de prophylle basal
@@ -600,7 +614,7 @@
 Crocus cvijicii Kos.
 Crocus dalmaticus Vis.
 Crocus gargaricus Herb.
-Crocus herbertii B. Mathew (élevé au rang d’espèce)[2]
+Crocus herbertii B. Mathew (élevé au rang d’espèce)
 Crocus hermoneus Kotschy ex Maw
 Crocus jablanicensis N. Randj. &amp; V. Randj.
 Crocus reticulatus Steven ex Adams
@@ -720,7 +734,9 @@
           <t>Quelques espèces rustiques à floraison hivernale et printanière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocus ancyrensis (Herb.) Maw 'Golden Bunch' et Crocus gargaricus Herb. – deux espèces Turquie – sont à fleurs jaunes. Crocus ancyrensis fleurit dès la fin janvier avec Crocus tommasinianus.
 Crocus angustifolius Weston (Syn. Crocus susianus) de Crimée a des fleurs jaunes à tépales étroits bruns à l’extérieur.
@@ -733,7 +749,7 @@
 Crocus minimus DC. de Corse et de Sardaigne est une espèce miniature à fleurs violettes, dont la face externe est striée de violet. Crocus imperati Ten., une espèce précoce du sud de l’Italie est semblable, mais à plus grandes fleurs, dont la face extérieure est chamois et plus finement striée.
 Crocus sieberi J. Gay de Grèce. Ses sélections ont des fleurs blanches, roses ou violettes.
 Subsp. sublimis (Herb.) B.Mathew 'Tricolor' a des fleurs violettes avec une gorge jaune entourée d’une large bande blanche.
-Crocus tommasinianus Herb. des Balkans à petites fleurs mauves ; nommé d’après le chevalier de Tommasini, un fonctionnaire d'état qui a étudié au XIXe siècle la flore de Dalmatie. Crocus tommasinianus se ressème abondamment et se naturalise facilement (C'est une stinzenplant)[4]. Il existe des sélections de couleurs allant du blanc au pourpre.
+Crocus tommasinianus Herb. des Balkans à petites fleurs mauves ; nommé d’après le chevalier de Tommasini, un fonctionnaire d'état qui a étudié au XIXe siècle la flore de Dalmatie. Crocus tommasinianus se ressème abondamment et se naturalise facilement (C'est une stinzenplant). Il existe des sélections de couleurs allant du blanc au pourpre.
 Crocus vernus (L.) Hill est indigène dans les montagnes d'Europe.
 subsp. albiflorus (Syn. Crocus caeruleus Weston) à petite fleur blanche à tube violet. Europe occidentale et centrale (Alpes, Pyrénées).
 subsp. vernus (s.l., c'est-à-dire incluant Crocus heuffelianus et sa subsp. scepusiensis) à plus grande fleur violette. Europe centrale et méridionale (Carpates, Sud de l'Italie et Balkans). C'est à partir de cette sous-espèce que les crocus de Hollande à fleurs blanches, violettes et striées ('Pickwick') ont été sélectionnés.
@@ -745,7 +761,43 @@
 			Crocus tommasinianus recouvert de quelques gouttes de pluie, dans le De Famberhorst (nl), Hollande. Février 2023.
 			Crocus etruscus 'Zwanenburg'
 			Crocus, tout court. Mars 2021.
-Autres espèces à floraison hivernale et printanière
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques espèces rustiques à floraison hivernale et printanière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres espèces à floraison hivernale et printanière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crocus alatavicus
 			Crocus aleppicus
 			Crocus ancyrensis
@@ -769,33 +821,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Crocus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crocus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Quelques espèces rustiques à floraison automnale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces précoces ont comme le colchique d’automne des fleurs nues ; les feuilles apparaissant au début de l’hiver. Les espèces plus tardives fleurissent parmi les jeunes feuilles.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les espèces précoces ont comme le colchique d’automne des fleurs nues ; les feuilles apparaissant au début de l’hiver. Les espèces plus tardives fleurissent parmi les jeunes feuilles.
 Crocus cancellatus Herb., à corme réticulé, est sinon semblable à Crocus speciosus. Les cormes sont vendus sous le nom de Hursinein comme légume racine sur les marchés d'Asie mineure, notamment en Syrie.
 Crocus cartwrightianus Herb. du sud de la Grèce - l'ancêtre présumé de Crocus sativus - dont la sélection 'Albus' est surtout cultivée, est plus florifère que Crocus sativus.
 Crocus goulimyi Turrill du sud de la Grèce à petites fleurs lilas à long tube fleurit en octobre – novembre. Ce n'est certes pas le plus beau crocus d'automne, mais il est gratifiant par sa longue période de floraison.
@@ -804,21 +858,158 @@
 Crocus ligusticus M.G. Mariotti (Syn. Crocus medius), le crocus de Ligurie des Alpes-Maritimes et de Ligurie, à fleurs violettes avec des stigmates rouges, fleurit en octobre. Les feuilles apparaissent en fin de floraison.
 Crocus longiflorus Raf., le crocus odorant, du sud de l'Italie et de Malte, a des fleurs lilas à gorge orangée et à stigmates rouges.
 Crocus niveus Bowles, une espèce plus délicate du sud de la Grèce, a des fleurs blanches à stigmates rouges.
-Crocus nudiflorus Sm., le crocus d'automne du Massif central, des Pyrénées et des Monts Cantabriques, a des fleurs nues lilas à stigmates orangés en pinceaux. Les cormes de cette espèce forment des rejets ; ce qui fait que cette espèce forme un tapis lâche. Ce crocus est localement naturalisé en Grande-Bretagne[5].
+Crocus nudiflorus Sm., le crocus d'automne du Massif central, des Pyrénées et des Monts Cantabriques, a des fleurs nues lilas à stigmates orangés en pinceaux. Les cormes de cette espèce forment des rejets ; ce qui fait que cette espèce forme un tapis lâche. Ce crocus est localement naturalisé en Grande-Bretagne.
 Crocus ochroleucus Boiss. &amp; Gaill., d'Asie mineure à petites fleurs blanches est une espèce tardive (novembre) très florifère.
 Crocus pulchellus Herb. des Balkans et d'Asie mineure, ressemble à C. speciosus, en plus élancé ; il s'en distingue entre autres par ses anthères blanches ; la variété 'Zephyr' est blanc perlé.
 Crocus serotinus Salisb., très semblable à C. nudiflorus, est à floraison plus tardive, les feuilles apparaissant pendant ou juste après la floraison.
 subsp. serotinus est endémique du Portugal.
 subsp. clusii (J.Gay) B.Mathew se rencontre dans l'ouest de la péninsule ibérique.
 subsp. salzmannii (J.Gay) B.Mathew se rencontre dans le sud de l'Espagne et au nord du Maroc.
-Crocus speciosus M. Bieb. de Crimée et d'Asie mineure, à fleur nue, violacée à anthères jaunes et à stigmates orangés finement divisés, fleurit dès la fin septembre. Il en existe des sélections à fleurs blanches, bleues et violettes. 'Oxonian' a une grande fleur violet foncé.
-Le safran
-Avec sa grande fleur mauve, le Crocus sativus, dont on extrait le safran et qui a besoin de chaleur pour bien fleurir, est un triploïde stérile issu vraisemblablement de Crocus cartwrightianus.
-Un crocus remarquable
-Crocus mathewii H. Kemdorff &amp; E. Pasche, une espèce trouvée en 1994 dans les monts Taurus du sud de la Turquie. Cette espèce à floraison automnale, nommée d’après le spécialiste des crocus Brian Mathew, est remarquable par son périgone blanc à gorge bleue. Cette espèce rare a entre-temps peut-être disparu à l’état sauvage, à la suite d'une récolte exagérée.
-Le crociris
-Crocus banaticus HeuffC. nudiflorus. (Syn. Crocus byzantinus Ker Gawl.), le « Crociris » d'Europe orientale est un cas à part. Les tépales internes étroits sont dressés, les externes larges et renversés ; ce qui le fait ressembler à un iris.
-Autres espèces à floraison automnale
+Crocus speciosus M. Bieb. de Crimée et d'Asie mineure, à fleur nue, violacée à anthères jaunes et à stigmates orangés finement divisés, fleurit dès la fin septembre. Il en existe des sélections à fleurs blanches, bleues et violettes. 'Oxonian' a une grande fleur violet foncé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques espèces rustiques à floraison automnale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le safran</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avec sa grande fleur mauve, le Crocus sativus, dont on extrait le safran et qui a besoin de chaleur pour bien fleurir, est un triploïde stérile issu vraisemblablement de Crocus cartwrightianus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques espèces rustiques à floraison automnale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Un crocus remarquable</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Crocus mathewii H. Kemdorff &amp; E. Pasche, une espèce trouvée en 1994 dans les monts Taurus du sud de la Turquie. Cette espèce à floraison automnale, nommée d’après le spécialiste des crocus Brian Mathew, est remarquable par son périgone blanc à gorge bleue. Cette espèce rare a entre-temps peut-être disparu à l’état sauvage, à la suite d'une récolte exagérée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques espèces rustiques à floraison automnale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le crociris</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Crocus banaticus HeuffC. nudiflorus. (Syn. Crocus byzantinus Ker Gawl.), le « Crociris » d'Europe orientale est un cas à part. Les tépales internes étroits sont dressés, les externes larges et renversés ; ce qui le fait ressembler à un iris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques espèces rustiques à floraison automnale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres espèces à floraison automnale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crocus banaticus
 			Crocus cancellatus
 			Crocus cartwrightianus 'Albus'
@@ -839,31 +1030,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Crocus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crocus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cormes des crocus doivent être plantés dans un sol bien perméable en situation ensoleillée ; les crocus d’automne dès la fin juillet, ceux à floraison hivernale et printanière dès le mois de septembre. Leurs pires ennemis sont les mulots et les campagnols qui en sont friands.
 Outre les banals crocus de Hollande, issus de sélections de Crocus vernus, le crocus printanier, et de Crocus flavus, et les crocus dits botaniques, obtenus surtout à partir de sélections et d'hybrides de Crocus chrysanthus, les producteurs spécialisés proposent un bon nombre d’autres espèces.
@@ -873,103 +1066,185 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Crocus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crocus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, le crocus symbolise l'inquiétude[6].
-Musique
-Le crocus a donné son nom au groupe de hard rock suisse Krokus.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le crocus symbolise l'inquiétude.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Crocus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crocus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture populaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crocus a donné son nom au groupe de hard rock suisse Krokus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Colchique et crocus</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs de crocus ressemblent à celles des colchiques mais possèdent seulement trois étamines contre six pour les colchiques.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Crocus</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crocus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Le crocus dans la littérature antique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crocus dans la Bible
-Dans la Bible, il y aurait deux allusions au crocus, situées toutes deux dans l'Ancien Testament.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Le crocus dans la Bible</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la Bible, il y aurait deux allusions au crocus, situées toutes deux dans l'Ancien Testament.
 Dans le Cantique des Cantiques, il y aurait une allusion au crocus, peut-être le Crocus sativus ou safran. Certains traduisent Cantique des Cantiques 2.1 ainsi : « Je suis un crocus de la Plaine, un lotus des Vallées. » Plusieurs traducteurs traduisent la première fleur, celle qui est de la plaine ou région du Sharôn en Israël, par "narcisse" (habatseleth en hébreu), mais d'autres considèrent que le crocus pourrait être une meilleure traduction. Michael V. Fox, professeur au département des études hébraïques et sémitiques à la University of Wisconsin-Madison et auteur du livre The Song of Songs and the Ancient Egyptian Love Songs, préfère traduire le terme par "crocus", car c’est le sens du terme akkadien qui y correspond, habassillatu. Dans le passage de Ct 2.1, une jeune femme serait symbolisée par le crocus et une autre fleur, qui diffère elle aussi selon le choix de traduction.
 Dans le Livre d'Isaïe, on parlerait aussi du crocus : Le désert et le pays aride se réjouiront ; la solitude s'égaiera, et fleurira comme un crocus. (Isaïe 35.1) Il s'agit ici du même terme que pour le Cantique des Cantiques, habatseleth. Dans ce second passage, le crocus serait un symbole de la bénédiction divine.
-Le crocus dans les mythologies grecque et romaine
-Dans la mythologie grecque, on a le récit d’un jeune homme amoureux de la nymphe Smylax, qui ne répondait pas à son amour, et qui fut changé en crocus par les dieux pour apaiser sa peine. D’après l’Iliade, cette fleur formait aussi la couche de Zeus et d’Héra. De plus, Europe, une Phénicienne de haut rang séduite par Zeus métamorphosé taureau, en ayant respiré de sa bouche un crocus de safran. On représentait aussi les dieux et les héros grecs comme portant des vêtements de couleur jaune safran.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Crocus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Le crocus dans la littérature antique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Le crocus dans les mythologies grecque et romaine</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, on a le récit d’un jeune homme amoureux de la nymphe Smylax, qui ne répondait pas à son amour, et qui fut changé en crocus par les dieux pour apaiser sa peine. D’après l’Iliade, cette fleur formait aussi la couche de Zeus et d’Héra. De plus, Europe, une Phénicienne de haut rang séduite par Zeus métamorphosé taureau, en ayant respiré de sa bouche un crocus de safran. On représentait aussi les dieux et les héros grecs comme portant des vêtements de couleur jaune safran.
 Dans la mythologie romaine, on affirme que, sur tous les lieux où s'aimèrent Junon et Jupiter, la semence se répandit sur le sol donnant naissance à un crocus de safran.
 </t>
         </is>
